--- a/public/dataimportsatker.xlsx
+++ b/public/dataimportsatker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PRG\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{380B3D9F-C6E8-4D67-989B-37819B96D5AC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{339DAB19-2711-403F-ADFA-0209B42F1DED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{6EBF1E04-6FB6-4425-A294-FDA37B5A98E4}"/>
   </bookViews>
@@ -401,6 +401,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/public/dataimportsatker.xlsx
+++ b/public/dataimportsatker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PRG\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{339DAB19-2711-403F-ADFA-0209B42F1DED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E0AC91-F7F4-487D-AAE9-4A3235CA6543}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{6EBF1E04-6FB6-4425-A294-FDA37B5A98E4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>kd_satker</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>POLRESS TABABAB</t>
+  </si>
+  <si>
+    <t>anak_satker</t>
+  </si>
+  <si>
+    <t>109-Pertama,110-Kedua</t>
   </si>
 </sst>
 </file>
@@ -394,35 +400,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3183BC-0612-4901-AE6A-D951BF9A5C30}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
